--- a/biology/Médecine/Medicor/Medicor.xlsx
+++ b/biology/Médecine/Medicor/Medicor.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,10 +490,12 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
-Medicor est une entreprise cotée en bourse[2]. Ses filiales sont spécialisées dans la fabrication (Eurosilicone et Nagor) et la distribution (Biosil) de produits dédiés à la chirurgie reconstructive, la chirurgie plastique et la chirurgie esthétique[3].
+Medicor est une entreprise cotée en bourse. Ses filiales sont spécialisées dans la fabrication (Eurosilicone et Nagor) et la distribution (Biosil) de produits dédiés à la chirurgie reconstructive, la chirurgie plastique et la chirurgie esthétique.
 </t>
         </is>
       </c>
@@ -512,11 +524,13 @@
           <t>Organisation</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Medicor a trois filiales : Eurosilicone, Nagor et Biosil.
-Eurosilicone est un fabricant d'implants chirurgicaux parmi les leaders mondiaux de la fabrication de prothèses mammaires[4]. Située à Apt dans le département de Vaucluse, l'entreprise distribue dans 86 pays. Eurosilicone a été acquis Medicor Ltd le 6 juillet 2004[5].
-Nagor, créé en 1979, fait de même avec une implantation en Angleterre et en Écosse[6]. Biosil, dans le même secteur d'activité mais orienté distribution, a rejoint[réf. souhaitée] Medicor Ltd en même temps que Nagor, accord définitif signé le 28 avril 2006[7].
+Eurosilicone est un fabricant d'implants chirurgicaux parmi les leaders mondiaux de la fabrication de prothèses mammaires. Située à Apt dans le département de Vaucluse, l'entreprise distribue dans 86 pays. Eurosilicone a été acquis Medicor Ltd le 6 juillet 2004.
+Nagor, créé en 1979, fait de même avec une implantation en Angleterre et en Écosse. Biosil, dans le même secteur d'activité mais orienté distribution, a rejoint[réf. souhaitée] Medicor Ltd en même temps que Nagor, accord définitif signé le 28 avril 2006.
 </t>
         </is>
       </c>
